--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggdam\Documents\Codes\Git\next-class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F3AAAB9-5E18-49CB-B858-CFFEDE19B5AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB965CF-F9B0-4923-991F-49CF8F57FFC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="3413" windowWidth="15390" windowHeight="9532" xr2:uid="{8AA0A32A-BF53-4677-BB7A-D49725FF76D7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8AA0A32A-BF53-4677-BB7A-D49725FF76D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Sezione</t>
   </si>
   <si>
     <t>Argomento</t>
-  </si>
-  <si>
-    <t>Note</t>
   </si>
   <si>
     <t>Novembre</t>
@@ -48,14 +45,92 @@
     <t>Dicembre</t>
   </si>
   <si>
-    <t>Gennaio</t>
+    <t>Data Fine</t>
+  </si>
+  <si>
+    <t>Data inizio</t>
+  </si>
+  <si>
+    <t>Progettazione</t>
+  </si>
+  <si>
+    <t>implementazione</t>
+  </si>
+  <si>
+    <t>Stesura requisiti</t>
+  </si>
+  <si>
+    <t>Stesura Casi d'uso</t>
+  </si>
+  <si>
+    <t>Realizzazione diagramma di Gant</t>
+  </si>
+  <si>
+    <t>Progettazione Dati e Classi</t>
+  </si>
+  <si>
+    <t>Proettazione Architettura</t>
+  </si>
+  <si>
+    <t>Progettazione Interfaccia</t>
+  </si>
+  <si>
+    <t>Progettazione Componenti</t>
+  </si>
+  <si>
+    <t>Pdf Parsing</t>
+  </si>
+  <si>
+    <t>Interfaccia SW</t>
+  </si>
+  <si>
+    <t>Interfaccia SP</t>
+  </si>
+  <si>
+    <t>Elaborazione messaggi</t>
+  </si>
+  <si>
+    <t>Json file editor</t>
+  </si>
+  <si>
+    <t>Registro presenze e relativa gestione grafica</t>
+  </si>
+  <si>
+    <t>Canale di comunicazione di interconnesione</t>
+  </si>
+  <si>
+    <t>Canale di comunicazione web</t>
+  </si>
+  <si>
+    <t>Manipolazione grafica posizione aule</t>
+  </si>
+  <si>
+    <t>Sincronizzazione</t>
+  </si>
+  <si>
+    <t>Condivisione esterna orari</t>
+  </si>
+  <si>
+    <t>Gestione cambio lingua visualizzata</t>
+  </si>
+  <si>
+    <t>Gestione storage</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Ott.</t>
+  </si>
+  <si>
+    <t>Sincronizzazione cloud</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +144,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -86,16 +211,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -410,28 +672,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650B5EE2-6E75-44CA-9808-4ADD4F84ED98}">
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:BZ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="AH10" sqref="AH10"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V43" sqref="V43:W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="21" width="2.73046875" customWidth="1"/>
-    <col min="22" max="40" width="2.6640625" customWidth="1"/>
-    <col min="41" max="41" width="2.9296875" customWidth="1"/>
-    <col min="42" max="45" width="8.59765625" customWidth="1"/>
+    <col min="2" max="2" width="35.86328125" customWidth="1"/>
+    <col min="5" max="6" width="2.86328125" customWidth="1"/>
+    <col min="7" max="7" width="0.796875" style="8" customWidth="1"/>
+    <col min="8" max="13" width="2.9296875" customWidth="1"/>
+    <col min="14" max="14" width="2.9296875" style="31" customWidth="1"/>
+    <col min="15" max="24" width="2.9296875" customWidth="1"/>
+    <col min="25" max="25" width="0.86328125" style="3" customWidth="1"/>
+    <col min="26" max="28" width="2.9296875" customWidth="1"/>
+    <col min="29" max="29" width="2.9296875" style="31" customWidth="1"/>
+    <col min="30" max="42" width="2.9296875" customWidth="1"/>
+    <col min="43" max="43" width="2.9296875" style="31" customWidth="1"/>
+    <col min="44" max="56" width="2.9296875" customWidth="1"/>
+    <col min="57" max="57" width="1" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
+    <row r="1" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -445,13 +717,13 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
@@ -467,142 +739,2488 @@
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BF1" s="25"/>
+    </row>
+    <row r="2" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4">
+        <v>31</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="4">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4">
+        <v>18</v>
+      </c>
+      <c r="M2" s="4">
+        <v>19</v>
+      </c>
+      <c r="N2" s="30">
+        <v>20</v>
+      </c>
+      <c r="O2" s="4">
+        <v>21</v>
+      </c>
+      <c r="P2" s="4">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>23</v>
+      </c>
+      <c r="R2" s="4">
+        <v>24</v>
+      </c>
+      <c r="S2" s="4">
+        <v>25</v>
+      </c>
+      <c r="T2" s="4">
+        <v>26</v>
+      </c>
+      <c r="U2" s="4">
+        <v>27</v>
+      </c>
+      <c r="V2" s="4">
+        <v>28</v>
+      </c>
+      <c r="W2" s="4">
+        <v>29</v>
+      </c>
+      <c r="X2" s="4">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="4">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="AB2" s="4">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="30">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>7</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>8</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>9</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>11</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>12</v>
+      </c>
+      <c r="AL2" s="4">
         <v>13</v>
       </c>
-      <c r="E2">
+      <c r="AM2" s="4">
         <v>14</v>
       </c>
-      <c r="F2">
+      <c r="AN2" s="4">
         <v>15</v>
       </c>
-      <c r="G2">
+      <c r="AO2" s="4">
         <v>16</v>
       </c>
-      <c r="H2">
+      <c r="AP2" s="4">
         <v>17</v>
       </c>
-      <c r="I2">
+      <c r="AQ2" s="30">
         <v>18</v>
       </c>
-      <c r="J2">
+      <c r="AR2" s="4">
         <v>19</v>
       </c>
-      <c r="K2">
+      <c r="AS2" s="4">
         <v>20</v>
       </c>
-      <c r="L2">
+      <c r="AT2" s="4">
         <v>21</v>
       </c>
-      <c r="M2">
+      <c r="AU2" s="4">
         <v>22</v>
       </c>
-      <c r="N2">
+      <c r="AV2" s="4">
         <v>23</v>
       </c>
-      <c r="O2">
+      <c r="AW2" s="4">
         <v>24</v>
       </c>
-      <c r="P2">
+      <c r="AX2" s="4">
         <v>25</v>
       </c>
-      <c r="Q2">
+      <c r="AY2" s="4">
         <v>26</v>
       </c>
-      <c r="R2">
+      <c r="AZ2" s="4">
         <v>27</v>
       </c>
-      <c r="S2">
+      <c r="BA2" s="4">
         <v>28</v>
       </c>
-      <c r="T2">
+      <c r="BB2" s="4">
         <v>29</v>
       </c>
-      <c r="U2">
+      <c r="BC2" s="4">
         <v>30</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2">
-        <v>2</v>
-      </c>
-      <c r="X2">
-        <v>3</v>
-      </c>
-      <c r="Y2">
-        <v>4</v>
-      </c>
-      <c r="Z2">
-        <v>5</v>
-      </c>
-      <c r="AA2">
+      <c r="BD2" s="4">
+        <v>31</v>
+      </c>
+      <c r="BF2" s="26"/>
+    </row>
+    <row r="3" spans="1:73" s="40" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AB2">
+      <c r="N3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AQ3" s="41"/>
+      <c r="BF3" s="42"/>
+    </row>
+    <row r="4" spans="1:73" s="10" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="16"/>
+      <c r="BF4" s="25"/>
+      <c r="BG4" s="25"/>
+      <c r="BH4" s="25"/>
+      <c r="BI4" s="25"/>
+      <c r="BJ4" s="25"/>
+      <c r="BK4" s="25"/>
+      <c r="BL4" s="25"/>
+      <c r="BM4" s="25"/>
+      <c r="BN4" s="25"/>
+      <c r="BO4" s="25"/>
+      <c r="BP4" s="25"/>
+      <c r="BQ4" s="25"/>
+      <c r="BR4" s="25"/>
+      <c r="BS4" s="25"/>
+      <c r="BT4" s="25"/>
+      <c r="BU4" s="25"/>
+    </row>
+    <row r="5" spans="1:73" s="11" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="19"/>
+      <c r="BA5" s="19"/>
+      <c r="BB5" s="19"/>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="21"/>
+      <c r="BF5" s="25"/>
+      <c r="BG5" s="25"/>
+      <c r="BH5" s="25"/>
+      <c r="BI5" s="25"/>
+      <c r="BJ5" s="25"/>
+      <c r="BK5" s="25"/>
+      <c r="BL5" s="25"/>
+      <c r="BM5" s="25"/>
+      <c r="BN5" s="25"/>
+      <c r="BO5" s="25"/>
+      <c r="BP5" s="25"/>
+      <c r="BQ5" s="25"/>
+      <c r="BR5" s="25"/>
+      <c r="BS5" s="25"/>
+      <c r="BT5" s="25"/>
+      <c r="BU5" s="25"/>
+    </row>
+    <row r="6" spans="1:73" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="32"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="16"/>
+      <c r="BF6" s="25"/>
+    </row>
+    <row r="7" spans="1:73" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="33"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="19"/>
+      <c r="AZ7" s="19"/>
+      <c r="BA7" s="19"/>
+      <c r="BB7" s="19"/>
+      <c r="BC7" s="19"/>
+      <c r="BD7" s="19"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="25"/>
+    </row>
+    <row r="8" spans="1:73" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="25"/>
+    </row>
+    <row r="9" spans="1:73" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="19"/>
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="25"/>
+    </row>
+    <row r="10" spans="1:73" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="29"/>
+      <c r="BF10" s="25"/>
+    </row>
+    <row r="11" spans="1:73" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="6"/>
+      <c r="BF11" s="25"/>
+    </row>
+    <row r="12" spans="1:73" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="32"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="14"/>
+      <c r="BB12" s="14"/>
+      <c r="BC12" s="14"/>
+      <c r="BD12" s="14"/>
+      <c r="BE12" s="16"/>
+      <c r="BF12" s="25"/>
+    </row>
+    <row r="13" spans="1:73" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="33"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="19"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="19"/>
+      <c r="AZ13" s="19"/>
+      <c r="BA13" s="19"/>
+      <c r="BB13" s="19"/>
+      <c r="BC13" s="19"/>
+      <c r="BD13" s="19"/>
+      <c r="BE13" s="21"/>
+      <c r="BF13" s="25"/>
+    </row>
+    <row r="14" spans="1:73" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="36"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="BF14" s="25"/>
+    </row>
+    <row r="15" spans="1:73" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="6"/>
+      <c r="BF15" s="25"/>
+    </row>
+    <row r="16" spans="1:73" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="32"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="14"/>
+      <c r="AZ16" s="14"/>
+      <c r="BA16" s="14"/>
+      <c r="BB16" s="14"/>
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="16"/>
+      <c r="BF16" s="25"/>
+    </row>
+    <row r="17" spans="1:58" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="33"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="19"/>
+      <c r="AZ17" s="19"/>
+      <c r="BA17" s="19"/>
+      <c r="BB17" s="19"/>
+      <c r="BC17" s="19"/>
+      <c r="BD17" s="19"/>
+      <c r="BE17" s="21"/>
+      <c r="BF17" s="25"/>
+    </row>
+    <row r="18" spans="1:58" s="38" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AC2">
-        <v>8</v>
-      </c>
-      <c r="AD2">
-        <v>9</v>
-      </c>
-      <c r="AE2">
-        <v>10</v>
-      </c>
-      <c r="AF2">
-        <v>11</v>
-      </c>
-      <c r="AG2">
-        <v>12</v>
-      </c>
-      <c r="AH2">
-        <v>13</v>
-      </c>
-      <c r="AI2">
-        <v>14</v>
-      </c>
-      <c r="AJ2">
+      <c r="N18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AQ18" s="39"/>
+    </row>
+    <row r="19" spans="1:58" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AK2">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="32"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="14"/>
+      <c r="BD19" s="14"/>
+      <c r="BE19" s="16"/>
+    </row>
+    <row r="20" spans="1:58" ht="14.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="33"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="19"/>
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="19"/>
+      <c r="AZ20" s="19"/>
+      <c r="BA20" s="19"/>
+      <c r="BB20" s="19"/>
+      <c r="BC20" s="19"/>
+      <c r="BD20" s="19"/>
+      <c r="BE20" s="21"/>
+    </row>
+    <row r="21" spans="1:58" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AL2">
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="BE21" s="24"/>
+    </row>
+    <row r="22" spans="1:58" ht="14.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="6"/>
+      <c r="BE22" s="24"/>
+    </row>
+    <row r="23" spans="1:58" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AM2">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="14"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="14"/>
+      <c r="AV23" s="14"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
+      <c r="AZ23" s="14"/>
+      <c r="BA23" s="14"/>
+      <c r="BB23" s="14"/>
+      <c r="BC23" s="14"/>
+      <c r="BD23" s="14"/>
+      <c r="BE23" s="16"/>
+    </row>
+    <row r="24" spans="1:58" ht="14.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="33"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="19"/>
+      <c r="BA24" s="19"/>
+      <c r="BB24" s="19"/>
+      <c r="BC24" s="19"/>
+      <c r="BD24" s="19"/>
+      <c r="BE24" s="21"/>
+    </row>
+    <row r="25" spans="1:58" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="36"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="BE25" s="24"/>
+    </row>
+    <row r="26" spans="1:58" ht="14.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="6"/>
+      <c r="BE26" s="24"/>
+    </row>
+    <row r="27" spans="1:58" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AN2">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14"/>
+      <c r="AM27" s="14"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="32"/>
+      <c r="AR27" s="14"/>
+      <c r="AS27" s="14"/>
+      <c r="AT27" s="14"/>
+      <c r="AU27" s="14"/>
+      <c r="AV27" s="14"/>
+      <c r="AW27" s="14"/>
+      <c r="AX27" s="14"/>
+      <c r="AY27" s="14"/>
+      <c r="AZ27" s="14"/>
+      <c r="BA27" s="14"/>
+      <c r="BB27" s="14"/>
+      <c r="BC27" s="14"/>
+      <c r="BD27" s="14"/>
+      <c r="BE27" s="16"/>
+    </row>
+    <row r="28" spans="1:58" ht="14.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="33"/>
+      <c r="AR28" s="19"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="19"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="19"/>
+      <c r="BA28" s="19"/>
+      <c r="BB28" s="19"/>
+      <c r="BC28" s="19"/>
+      <c r="BD28" s="19"/>
+      <c r="BE28" s="21"/>
+    </row>
+    <row r="29" spans="1:58" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AO2">
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="BE29" s="24"/>
+    </row>
+    <row r="30" spans="1:58" ht="14.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="6"/>
+      <c r="BE30" s="24"/>
+    </row>
+    <row r="31" spans="1:58" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13" t="s">
         <v>20</v>
       </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="14"/>
+      <c r="AM31" s="14"/>
+      <c r="AN31" s="14"/>
+      <c r="AO31" s="14"/>
+      <c r="AP31" s="14"/>
+      <c r="AQ31" s="32"/>
+      <c r="AR31" s="14"/>
+      <c r="AS31" s="14"/>
+      <c r="AT31" s="14"/>
+      <c r="AU31" s="14"/>
+      <c r="AV31" s="14"/>
+      <c r="AW31" s="14"/>
+      <c r="AX31" s="14"/>
+      <c r="AY31" s="14"/>
+      <c r="AZ31" s="14"/>
+      <c r="BA31" s="14"/>
+      <c r="BB31" s="14"/>
+      <c r="BC31" s="14"/>
+      <c r="BD31" s="14"/>
+      <c r="BE31" s="16"/>
+    </row>
+    <row r="32" spans="1:58" ht="14.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="19"/>
+      <c r="AQ32" s="33"/>
+      <c r="AR32" s="19"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="19"/>
+      <c r="AU32" s="19"/>
+      <c r="AV32" s="19"/>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="19"/>
+      <c r="AZ32" s="19"/>
+      <c r="BA32" s="19"/>
+      <c r="BB32" s="19"/>
+      <c r="BC32" s="19"/>
+      <c r="BD32" s="19"/>
+      <c r="BE32" s="21"/>
+    </row>
+    <row r="33" spans="1:57" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" s="36"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="BE33" s="24"/>
+    </row>
+    <row r="34" spans="1:57" ht="14.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="6"/>
+      <c r="BE34" s="24"/>
+    </row>
+    <row r="35" spans="1:57" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="32"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="14"/>
+      <c r="AM35" s="14"/>
+      <c r="AN35" s="14"/>
+      <c r="AO35" s="14"/>
+      <c r="AP35" s="14"/>
+      <c r="AQ35" s="32"/>
+      <c r="AR35" s="14"/>
+      <c r="AS35" s="14"/>
+      <c r="AT35" s="14"/>
+      <c r="AU35" s="14"/>
+      <c r="AV35" s="14"/>
+      <c r="AW35" s="14"/>
+      <c r="AX35" s="14"/>
+      <c r="AY35" s="14"/>
+      <c r="AZ35" s="14"/>
+      <c r="BA35" s="14"/>
+      <c r="BB35" s="14"/>
+      <c r="BC35" s="14"/>
+      <c r="BD35" s="14"/>
+      <c r="BE35" s="16"/>
+    </row>
+    <row r="36" spans="1:57" ht="14.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="33"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
+      <c r="AF36" s="19"/>
+      <c r="AG36" s="19"/>
+      <c r="AH36" s="19"/>
+      <c r="AI36" s="19"/>
+      <c r="AJ36" s="19"/>
+      <c r="AK36" s="19"/>
+      <c r="AL36" s="19"/>
+      <c r="AM36" s="19"/>
+      <c r="AN36" s="19"/>
+      <c r="AO36" s="19"/>
+      <c r="AP36" s="19"/>
+      <c r="AQ36" s="33"/>
+      <c r="AR36" s="19"/>
+      <c r="AS36" s="19"/>
+      <c r="AT36" s="19"/>
+      <c r="AU36" s="19"/>
+      <c r="AV36" s="19"/>
+      <c r="AW36" s="19"/>
+      <c r="AX36" s="19"/>
+      <c r="AY36" s="19"/>
+      <c r="AZ36" s="19"/>
+      <c r="BA36" s="19"/>
+      <c r="BB36" s="19"/>
+      <c r="BC36" s="19"/>
+      <c r="BD36" s="19"/>
+      <c r="BE36" s="21"/>
+    </row>
+    <row r="37" spans="1:57" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="BE37" s="24"/>
+    </row>
+    <row r="38" spans="1:57" ht="14.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="6"/>
+      <c r="BE38" s="24"/>
+    </row>
+    <row r="39" spans="1:57" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="32"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="14"/>
+      <c r="AI39" s="14"/>
+      <c r="AJ39" s="14"/>
+      <c r="AK39" s="14"/>
+      <c r="AL39" s="14"/>
+      <c r="AM39" s="14"/>
+      <c r="AN39" s="14"/>
+      <c r="AO39" s="14"/>
+      <c r="AP39" s="14"/>
+      <c r="AQ39" s="32"/>
+      <c r="AR39" s="14"/>
+      <c r="AS39" s="14"/>
+      <c r="AT39" s="14"/>
+      <c r="AU39" s="14"/>
+      <c r="AV39" s="14"/>
+      <c r="AW39" s="14"/>
+      <c r="AX39" s="14"/>
+      <c r="AY39" s="14"/>
+      <c r="AZ39" s="14"/>
+      <c r="BA39" s="14"/>
+      <c r="BB39" s="14"/>
+      <c r="BC39" s="14"/>
+      <c r="BD39" s="14"/>
+      <c r="BE39" s="16"/>
+    </row>
+    <row r="40" spans="1:57" ht="14.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="33"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="19"/>
+      <c r="AJ40" s="19"/>
+      <c r="AK40" s="19"/>
+      <c r="AL40" s="19"/>
+      <c r="AM40" s="19"/>
+      <c r="AN40" s="19"/>
+      <c r="AO40" s="19"/>
+      <c r="AP40" s="19"/>
+      <c r="AQ40" s="33"/>
+      <c r="AR40" s="19"/>
+      <c r="AS40" s="19"/>
+      <c r="AT40" s="19"/>
+      <c r="AU40" s="19"/>
+      <c r="AV40" s="19"/>
+      <c r="AW40" s="19"/>
+      <c r="AX40" s="19"/>
+      <c r="AY40" s="19"/>
+      <c r="AZ40" s="19"/>
+      <c r="BA40" s="19"/>
+      <c r="BB40" s="19"/>
+      <c r="BC40" s="19"/>
+      <c r="BD40" s="19"/>
+      <c r="BE40" s="21"/>
+    </row>
+    <row r="41" spans="1:57" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA41" s="9"/>
+      <c r="BE41" s="24"/>
+    </row>
+    <row r="42" spans="1:57" ht="14.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="6"/>
+      <c r="BE42" s="24"/>
+    </row>
+    <row r="43" spans="1:57" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="32"/>
+      <c r="AD43" s="14"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="14"/>
+      <c r="AI43" s="14"/>
+      <c r="AJ43" s="14"/>
+      <c r="AK43" s="14"/>
+      <c r="AL43" s="14"/>
+      <c r="AM43" s="14"/>
+      <c r="AN43" s="14"/>
+      <c r="AO43" s="14"/>
+      <c r="AP43" s="14"/>
+      <c r="AQ43" s="32"/>
+      <c r="AR43" s="14"/>
+      <c r="AS43" s="14"/>
+      <c r="AT43" s="14"/>
+      <c r="AU43" s="14"/>
+      <c r="AV43" s="14"/>
+      <c r="AW43" s="14"/>
+      <c r="AX43" s="14"/>
+      <c r="AY43" s="14"/>
+      <c r="AZ43" s="14"/>
+      <c r="BA43" s="14"/>
+      <c r="BB43" s="14"/>
+      <c r="BC43" s="14"/>
+      <c r="BD43" s="14"/>
+      <c r="BE43" s="16"/>
+    </row>
+    <row r="44" spans="1:57" ht="14.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="33"/>
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
+      <c r="AF44" s="19"/>
+      <c r="AG44" s="19"/>
+      <c r="AH44" s="19"/>
+      <c r="AI44" s="19"/>
+      <c r="AJ44" s="19"/>
+      <c r="AK44" s="19"/>
+      <c r="AL44" s="19"/>
+      <c r="AM44" s="19"/>
+      <c r="AN44" s="19"/>
+      <c r="AO44" s="19"/>
+      <c r="AP44" s="19"/>
+      <c r="AQ44" s="33"/>
+      <c r="AR44" s="19"/>
+      <c r="AS44" s="19"/>
+      <c r="AT44" s="19"/>
+      <c r="AU44" s="19"/>
+      <c r="AV44" s="19"/>
+      <c r="AW44" s="19"/>
+      <c r="AX44" s="19"/>
+      <c r="AY44" s="19"/>
+      <c r="AZ44" s="19"/>
+      <c r="BA44" s="19"/>
+      <c r="BB44" s="19"/>
+      <c r="BC44" s="19"/>
+      <c r="BD44" s="19"/>
+      <c r="BE44" s="21"/>
+    </row>
+    <row r="45" spans="1:57" s="40" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="N45" s="41"/>
+      <c r="AC45" s="41"/>
+      <c r="AQ45" s="41"/>
+      <c r="BE45" s="42"/>
+    </row>
+    <row r="46" spans="1:57" x14ac:dyDescent="0.45">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="14"/>
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="32"/>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="14"/>
+      <c r="AI46" s="14"/>
+      <c r="AJ46" s="14"/>
+      <c r="AK46" s="14"/>
+      <c r="AL46" s="14"/>
+      <c r="AM46" s="14"/>
+      <c r="AN46" s="14"/>
+      <c r="AO46" s="14"/>
+      <c r="AP46" s="14"/>
+      <c r="AQ46" s="32"/>
+      <c r="AR46" s="14"/>
+      <c r="AS46" s="14"/>
+      <c r="AT46" s="14"/>
+      <c r="AU46" s="14"/>
+      <c r="AV46" s="14"/>
+      <c r="AW46" s="14"/>
+      <c r="AX46" s="14"/>
+      <c r="AY46" s="14"/>
+      <c r="AZ46" s="14"/>
+      <c r="BA46" s="14"/>
+      <c r="BB46" s="14"/>
+      <c r="BC46" s="14"/>
+      <c r="BD46" s="14"/>
+      <c r="BE46" s="16"/>
+    </row>
+    <row r="47" spans="1:57" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="33"/>
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="19"/>
+      <c r="AF47" s="19"/>
+      <c r="AG47" s="19"/>
+      <c r="AH47" s="19"/>
+      <c r="AI47" s="19"/>
+      <c r="AJ47" s="19"/>
+      <c r="AK47" s="19"/>
+      <c r="AL47" s="19"/>
+      <c r="AM47" s="19"/>
+      <c r="AN47" s="19"/>
+      <c r="AO47" s="19"/>
+      <c r="AP47" s="19"/>
+      <c r="AQ47" s="33"/>
+      <c r="AR47" s="19"/>
+      <c r="AS47" s="19"/>
+      <c r="AT47" s="19"/>
+      <c r="AU47" s="19"/>
+      <c r="AV47" s="19"/>
+      <c r="AW47" s="19"/>
+      <c r="AX47" s="19"/>
+      <c r="AY47" s="19"/>
+      <c r="AZ47" s="19"/>
+      <c r="BA47" s="19"/>
+      <c r="BB47" s="19"/>
+      <c r="BC47" s="19"/>
+      <c r="BD47" s="19"/>
+      <c r="BE47" s="21"/>
+    </row>
+    <row r="48" spans="1:57" x14ac:dyDescent="0.45">
+      <c r="B48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE48" s="24"/>
+    </row>
+    <row r="49" spans="1:57" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B49" s="6"/>
+      <c r="BE49" s="24"/>
+    </row>
+    <row r="50" spans="1:57" x14ac:dyDescent="0.45">
+      <c r="A50" s="12"/>
+      <c r="B50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="32"/>
+      <c r="AD50" s="14"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="14"/>
+      <c r="AH50" s="14"/>
+      <c r="AI50" s="14"/>
+      <c r="AJ50" s="14"/>
+      <c r="AK50" s="14"/>
+      <c r="AL50" s="14"/>
+      <c r="AM50" s="14"/>
+      <c r="AN50" s="14"/>
+      <c r="AO50" s="14"/>
+      <c r="AP50" s="14"/>
+      <c r="AQ50" s="32"/>
+      <c r="AR50" s="14"/>
+      <c r="AS50" s="14"/>
+      <c r="AT50" s="14"/>
+      <c r="AU50" s="14"/>
+      <c r="AV50" s="14"/>
+      <c r="AW50" s="14"/>
+      <c r="AX50" s="14"/>
+      <c r="AY50" s="14"/>
+      <c r="AZ50" s="14"/>
+      <c r="BA50" s="14"/>
+      <c r="BB50" s="14"/>
+      <c r="BC50" s="14"/>
+      <c r="BD50" s="14"/>
+      <c r="BE50" s="16"/>
+    </row>
+    <row r="51" spans="1:57" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="33"/>
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="19"/>
+      <c r="AF51" s="19"/>
+      <c r="AG51" s="19"/>
+      <c r="AH51" s="19"/>
+      <c r="AI51" s="19"/>
+      <c r="AJ51" s="19"/>
+      <c r="AK51" s="19"/>
+      <c r="AL51" s="19"/>
+      <c r="AM51" s="19"/>
+      <c r="AN51" s="19"/>
+      <c r="AO51" s="19"/>
+      <c r="AP51" s="19"/>
+      <c r="AQ51" s="33"/>
+      <c r="AR51" s="19"/>
+      <c r="AS51" s="19"/>
+      <c r="AT51" s="19"/>
+      <c r="AU51" s="19"/>
+      <c r="AV51" s="19"/>
+      <c r="AW51" s="19"/>
+      <c r="AX51" s="19"/>
+      <c r="AY51" s="19"/>
+      <c r="AZ51" s="19"/>
+      <c r="BA51" s="19"/>
+      <c r="BB51" s="19"/>
+      <c r="BC51" s="19"/>
+      <c r="BD51" s="19"/>
+      <c r="BE51" s="21"/>
+    </row>
+    <row r="52" spans="1:57" x14ac:dyDescent="0.45">
+      <c r="B52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE52" s="24"/>
+    </row>
+    <row r="53" spans="1:57" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B53" s="6"/>
+      <c r="BE53" s="24"/>
+    </row>
+    <row r="54" spans="1:57" x14ac:dyDescent="0.45">
+      <c r="A54" s="12"/>
+      <c r="B54" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="14"/>
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="14"/>
+      <c r="AC54" s="32"/>
+      <c r="AD54" s="14"/>
+      <c r="AE54" s="14"/>
+      <c r="AF54" s="14"/>
+      <c r="AG54" s="14"/>
+      <c r="AH54" s="14"/>
+      <c r="AI54" s="14"/>
+      <c r="AJ54" s="14"/>
+      <c r="AK54" s="14"/>
+      <c r="AL54" s="14"/>
+      <c r="AM54" s="14"/>
+      <c r="AN54" s="14"/>
+      <c r="AO54" s="14"/>
+      <c r="AP54" s="14"/>
+      <c r="AQ54" s="32"/>
+      <c r="AR54" s="14"/>
+      <c r="AS54" s="14"/>
+      <c r="AT54" s="14"/>
+      <c r="AU54" s="14"/>
+      <c r="AV54" s="14"/>
+      <c r="AW54" s="14"/>
+      <c r="AX54" s="14"/>
+      <c r="AY54" s="14"/>
+      <c r="AZ54" s="14"/>
+      <c r="BA54" s="14"/>
+      <c r="BB54" s="14"/>
+      <c r="BC54" s="14"/>
+      <c r="BD54" s="14"/>
+      <c r="BE54" s="16"/>
+    </row>
+    <row r="55" spans="1:57" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="19"/>
+      <c r="AA55" s="19"/>
+      <c r="AB55" s="19"/>
+      <c r="AC55" s="33"/>
+      <c r="AD55" s="19"/>
+      <c r="AE55" s="19"/>
+      <c r="AF55" s="19"/>
+      <c r="AG55" s="19"/>
+      <c r="AH55" s="19"/>
+      <c r="AI55" s="19"/>
+      <c r="AJ55" s="19"/>
+      <c r="AK55" s="19"/>
+      <c r="AL55" s="19"/>
+      <c r="AM55" s="19"/>
+      <c r="AN55" s="19"/>
+      <c r="AO55" s="19"/>
+      <c r="AP55" s="19"/>
+      <c r="AQ55" s="33"/>
+      <c r="AR55" s="19"/>
+      <c r="AS55" s="19"/>
+      <c r="AT55" s="19"/>
+      <c r="AU55" s="19"/>
+      <c r="AV55" s="19"/>
+      <c r="AW55" s="19"/>
+      <c r="AX55" s="19"/>
+      <c r="AY55" s="19"/>
+      <c r="AZ55" s="19"/>
+      <c r="BA55" s="19"/>
+      <c r="BB55" s="19"/>
+      <c r="BC55" s="19"/>
+      <c r="BD55" s="19"/>
+      <c r="BE55" s="21"/>
+    </row>
+    <row r="56" spans="1:57" x14ac:dyDescent="0.45">
+      <c r="B56" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE56" s="24"/>
+    </row>
+    <row r="57" spans="1:57" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B57" s="6"/>
+      <c r="BE57" s="24"/>
+    </row>
+    <row r="58" spans="1:57" x14ac:dyDescent="0.45">
+      <c r="A58" s="12"/>
+      <c r="B58" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="14"/>
+      <c r="V58" s="14"/>
+      <c r="W58" s="14"/>
+      <c r="X58" s="14"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="14"/>
+      <c r="AA58" s="14"/>
+      <c r="AB58" s="14"/>
+      <c r="AC58" s="32"/>
+      <c r="AD58" s="14"/>
+      <c r="AE58" s="14"/>
+      <c r="AF58" s="14"/>
+      <c r="AG58" s="14"/>
+      <c r="AH58" s="14"/>
+      <c r="AI58" s="14"/>
+      <c r="AJ58" s="14"/>
+      <c r="AK58" s="14"/>
+      <c r="AL58" s="14"/>
+      <c r="AM58" s="14"/>
+      <c r="AN58" s="14"/>
+      <c r="AO58" s="14"/>
+      <c r="AP58" s="14"/>
+      <c r="AQ58" s="32"/>
+      <c r="AR58" s="14"/>
+      <c r="AS58" s="14"/>
+      <c r="AT58" s="14"/>
+      <c r="AU58" s="14"/>
+      <c r="AV58" s="14"/>
+      <c r="AW58" s="14"/>
+      <c r="AX58" s="14"/>
+      <c r="AY58" s="14"/>
+      <c r="AZ58" s="14"/>
+      <c r="BA58" s="14"/>
+      <c r="BB58" s="14"/>
+      <c r="BC58" s="14"/>
+      <c r="BD58" s="14"/>
+      <c r="BE58" s="16"/>
+    </row>
+    <row r="59" spans="1:57" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="17"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="33"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="19"/>
+      <c r="AF59" s="19"/>
+      <c r="AG59" s="19"/>
+      <c r="AH59" s="19"/>
+      <c r="AI59" s="19"/>
+      <c r="AJ59" s="19"/>
+      <c r="AK59" s="19"/>
+      <c r="AL59" s="19"/>
+      <c r="AM59" s="19"/>
+      <c r="AN59" s="19"/>
+      <c r="AO59" s="19"/>
+      <c r="AP59" s="19"/>
+      <c r="AQ59" s="33"/>
+      <c r="AR59" s="19"/>
+      <c r="AS59" s="19"/>
+      <c r="AT59" s="19"/>
+      <c r="AU59" s="19"/>
+      <c r="AV59" s="19"/>
+      <c r="AW59" s="19"/>
+      <c r="AX59" s="19"/>
+      <c r="AY59" s="19"/>
+      <c r="AZ59" s="19"/>
+      <c r="BA59" s="19"/>
+      <c r="BB59" s="19"/>
+      <c r="BC59" s="19"/>
+      <c r="BD59" s="19"/>
+      <c r="BE59" s="21"/>
+    </row>
+    <row r="60" spans="1:57" x14ac:dyDescent="0.45">
+      <c r="B60" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE60" s="24"/>
+    </row>
+    <row r="61" spans="1:57" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B61" s="6"/>
+      <c r="BE61" s="24"/>
+    </row>
+    <row r="62" spans="1:57" x14ac:dyDescent="0.45">
+      <c r="A62" s="12"/>
+      <c r="B62" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="14"/>
+      <c r="V62" s="14"/>
+      <c r="W62" s="14"/>
+      <c r="X62" s="14"/>
+      <c r="Y62" s="16"/>
+      <c r="Z62" s="14"/>
+      <c r="AA62" s="14"/>
+      <c r="AB62" s="14"/>
+      <c r="AC62" s="32"/>
+      <c r="AD62" s="14"/>
+      <c r="AE62" s="14"/>
+      <c r="AF62" s="14"/>
+      <c r="AG62" s="14"/>
+      <c r="AH62" s="14"/>
+      <c r="AI62" s="14"/>
+      <c r="AJ62" s="14"/>
+      <c r="AK62" s="14"/>
+      <c r="AL62" s="14"/>
+      <c r="AM62" s="14"/>
+      <c r="AN62" s="14"/>
+      <c r="AO62" s="14"/>
+      <c r="AP62" s="14"/>
+      <c r="AQ62" s="32"/>
+      <c r="AR62" s="14"/>
+      <c r="AS62" s="14"/>
+      <c r="AT62" s="14"/>
+      <c r="AU62" s="14"/>
+      <c r="AV62" s="14"/>
+      <c r="AW62" s="14"/>
+      <c r="AX62" s="14"/>
+      <c r="AY62" s="14"/>
+      <c r="AZ62" s="14"/>
+      <c r="BA62" s="14"/>
+      <c r="BB62" s="14"/>
+      <c r="BC62" s="14"/>
+      <c r="BD62" s="14"/>
+      <c r="BE62" s="16"/>
+    </row>
+    <row r="63" spans="1:57" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="19"/>
+      <c r="AA63" s="19"/>
+      <c r="AB63" s="19"/>
+      <c r="AC63" s="33"/>
+      <c r="AD63" s="19"/>
+      <c r="AE63" s="19"/>
+      <c r="AF63" s="19"/>
+      <c r="AG63" s="19"/>
+      <c r="AH63" s="19"/>
+      <c r="AI63" s="19"/>
+      <c r="AJ63" s="19"/>
+      <c r="AK63" s="19"/>
+      <c r="AL63" s="19"/>
+      <c r="AM63" s="19"/>
+      <c r="AN63" s="19"/>
+      <c r="AO63" s="19"/>
+      <c r="AP63" s="19"/>
+      <c r="AQ63" s="33"/>
+      <c r="AR63" s="19"/>
+      <c r="AS63" s="19"/>
+      <c r="AT63" s="19"/>
+      <c r="AU63" s="19"/>
+      <c r="AV63" s="19"/>
+      <c r="AW63" s="19"/>
+      <c r="AX63" s="19"/>
+      <c r="AY63" s="19"/>
+      <c r="AZ63" s="19"/>
+      <c r="BA63" s="19"/>
+      <c r="BB63" s="19"/>
+      <c r="BC63" s="19"/>
+      <c r="BD63" s="19"/>
+      <c r="BE63" s="21"/>
+    </row>
+    <row r="64" spans="1:57" x14ac:dyDescent="0.45">
+      <c r="BE64" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="V1:AO1"/>
+  <mergeCells count="32">
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:X1"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="Z1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>